--- a/biology/Botanique/Jardin_botanique_du_Missouri/Jardin_botanique_du_Missouri.xlsx
+++ b/biology/Botanique/Jardin_botanique_du_Missouri/Jardin_botanique_du_Missouri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique du Missouri (Missouri Botanical Garden ou Mobot), également connu sous le nom de « Jardin de Shaw » (Shaw's Garden) du nom de son fondateur, le botaniste et philanthrope Henry Shaw, est un jardin botanique situé à Saint-Louis (Missouri), aux États-Unis.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé en 1859, ce jardin est l'une des plus anciennes institutions botaniques des États-Unis. Le jardin est aussi un centre de recherche en botanique, ainsi qu'une oasis dans la ville de Saint-Louis avec ses 31 hectares de présentations horticoles.
-Depuis 1914, le jardin édite une revue scientifique, les Annals of the Missouri Botanical Garden[1]. Avant cette date, le jardin éditait un rapport annuel, publié de 1890 à 1912, qui donnait des informations sur l'école et le jardin[2].
+Depuis 1914, le jardin édite une revue scientifique, les Annals of the Missouri Botanical Garden. Avant cette date, le jardin éditait un rapport annuel, publié de 1890 à 1912, qui donnait des informations sur l'école et le jardin.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin possède dès l'origine une bibliothèque et un herbier[3]. Son herbier comporte 6,6 millions de spécimens, il est le deuxième plus important des États-Unis, derrière celui du Jardin botanique de New York[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin possède dès l'origine une bibliothèque et un herbier. Son herbier comporte 6,6 millions de spécimens, il est le deuxième plus important des États-Unis, derrière celui du Jardin botanique de New York.
 </t>
         </is>
       </c>
